--- a/ProyecctoFinal_V7/ValoresHélice.xlsx
+++ b/ProyecctoFinal_V7/ValoresHélice.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C95B11-33F4-422D-BAC0-A1F50B5DDBA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC2E56B-34D4-4B38-91DE-2C01153D8439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1005" windowWidth="20160" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21735" yWindow="795" windowWidth="20160" windowHeight="14235" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>Vo (v)</t>
   </si>
@@ -41,6 +42,189 @@
   </si>
   <si>
     <t>WORD (v)</t>
+  </si>
+  <si>
+    <t>DIRECCIONES HMI</t>
+  </si>
+  <si>
+    <t>INTERRUPTORES</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>DIR HMI</t>
+  </si>
+  <si>
+    <t>DIR PLC</t>
+  </si>
+  <si>
+    <t>Paro de emergencia</t>
+  </si>
+  <si>
+    <t>4x bit</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Habilitar sistema</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>PID AUT/MAN</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>PID RESET</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>PULSADORES</t>
+  </si>
+  <si>
+    <t>T.Fresado -</t>
+  </si>
+  <si>
+    <t>T. Fresado +</t>
+  </si>
+  <si>
+    <t>T Taladrado -</t>
+  </si>
+  <si>
+    <t>T. Taladrado +</t>
+  </si>
+  <si>
+    <t>T. Soplado -</t>
+  </si>
+  <si>
+    <t>T. Soplado +</t>
+  </si>
+  <si>
+    <t>Ángulo de inicio +</t>
+  </si>
+  <si>
+    <t>Ángulo de inicio -</t>
+  </si>
+  <si>
+    <t>Ángulo de soplado -</t>
+  </si>
+  <si>
+    <t>Ángulo de soplado +</t>
+  </si>
+  <si>
+    <t>LECTURAS</t>
+  </si>
+  <si>
+    <t>Tiempo de fresado</t>
+  </si>
+  <si>
+    <t>Tiempo de taladrado</t>
+  </si>
+  <si>
+    <t>Tiempo de soplado</t>
+  </si>
+  <si>
+    <t>Siguiente pieza</t>
+  </si>
+  <si>
+    <t>Alarma fallo sensor</t>
+  </si>
+  <si>
+    <t>Alarma sistema parado</t>
+  </si>
+  <si>
+    <t>Pieza 1</t>
+  </si>
+  <si>
+    <t>Pieza 3</t>
+  </si>
+  <si>
+    <t>Pieza 2</t>
+  </si>
+  <si>
+    <t>Pieza 4</t>
+  </si>
+  <si>
+    <t>Pieza 5</t>
+  </si>
+  <si>
+    <t>Pieza 6</t>
+  </si>
+  <si>
+    <t>Pieza 7</t>
+  </si>
+  <si>
+    <t>Empujador 1</t>
+  </si>
+  <si>
+    <t>Fresador</t>
+  </si>
+  <si>
+    <t>Taladradora</t>
+  </si>
+  <si>
+    <t>Empujador 2</t>
+  </si>
+  <si>
+    <t>PLANTA</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>OUT Sensor</t>
+  </si>
+  <si>
+    <t>IN Actuador</t>
+  </si>
+  <si>
+    <t>Ángulo de inicio</t>
+  </si>
+  <si>
+    <t>Ángulo de soplado</t>
+  </si>
+  <si>
+    <t>OUT PID</t>
+  </si>
+  <si>
+    <t>Ref PID</t>
+  </si>
+  <si>
+    <t>Slider Ref PID</t>
   </si>
 </sst>
 </file>
@@ -66,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +299,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -156,7 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +372,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1518,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -1737,4 +1950,433 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175B421C-6C4C-43B2-96A7-FB33130B88B8}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="11.42578125" style="10"/>
+    <col min="7" max="7" width="11.42578125" style="15"/>
+    <col min="9" max="11" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="G3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>